--- a/output/google_maps_data_SPBU_Bantul.xlsx
+++ b/output/google_maps_data_SPBU_Bantul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SPBU+Bantul/@-7.8056335,110.3636606,13z/data=!4m2!2m1!6e2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.1</v>
+        <v>-7.860971</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.860971</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.340546</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.03+Diro/@-7.860971,110.2684482,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56185aa4e515:0x450fd3a3d70fb09a!8m2!3d-7.860971!4d110.340546!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzphf0_v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.03+Diro/@-7.860971,110.2684482,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56185aa4e515:0x450fd3a3d70fb09a!8m2!3d-7.860971!4d110.340546!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzphf0_v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -571,25 +564,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>-7.910045</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.910045</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.318456</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+43.557.15+Palbapang/@-7.860971,110.2684482,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7affb1543de40d:0xad299f8db135a227!8m2!3d-7.9100447!4d110.3184564!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11hz9hjc44?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -608,25 +600,24 @@
           <t>0838-1672-4219</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>-7.914095</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.914095</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.286522</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.03+Cengkiran/@-7.9140949,110.2144242,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7aff0328770e55:0x2fce0d42a236f93f!8m2!3d-7.9140949!4d110.286522!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzv9pr3z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -649,25 +640,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>-7.852853</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.852853</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.341899</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.11+Pucung+Pendowoharjo/@-7.8528534,110.2698008,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a5624b913ac87:0xcf757a71874e87f4!8m2!3d-7.8528534!4d110.3418986!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptwq9bl2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.11+Pucung+Pendowoharjo/@-7.8528534,110.2698008,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a5624b913ac87:0xcf757a71874e87f4!8m2!3d-7.8528534!4d110.3418986!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptwq9bl2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>6 jam lalu</t>
         </is>
@@ -690,25 +680,24 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>-7.910983</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.910983</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.293768</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamina+Gas+Station+Pandak/@-7.9109833,110.2216706,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7aff1a8d6c947d:0x8653118630704475!8m2!3d-7.9109833!4d110.2937684!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b6cvmv76?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -731,25 +720,24 @@
           <t>0857-9908-4844</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.3</v>
+        <v>-7.885892</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.885892</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.35244</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.03+Gabusan/@-7.8858922,110.2803423,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a55e71a7b799d:0x64d8811c212f7a19!8m2!3d-7.8858922!4d110.3524401!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzyj2mtj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -772,25 +760,24 @@
           <t>(0274) 4396244</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.4</v>
+        <v>-7.860541</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.860541</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.374306</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.07/@-7.8858922,110.2803423,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a566119f3cdf3:0xf04b8dab5b492626!8m2!3d-7.860541!4d110.374306!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzwcdjm_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -809,25 +796,24 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.3</v>
+        <v>-7.798439</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.798439</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.408291</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.03/@-7.7984393,110.3361932,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a575952cb5cf1:0xaaf3faf09697a725!8m2!3d-7.7984393!4d110.408291!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzrh8pbg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -842,25 +828,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>-7.869219</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.869219</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.40195</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.16+Pleret/@-7.8692188,110.3298521,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a574d8fd4d90f:0xbb5fab34c9e18fba!8m2!3d-7.8692188!4d110.4019499!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11sw_wlkyp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -879,25 +864,24 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>-7.844851</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.844851</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.360998</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.18+Sewon/@-7.8448515,110.2889005,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a564ed69c483d:0xedfdeab803cb8b92!8m2!3d-7.8448515!4d110.3609983!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzpr61t_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.18+Sewon/@-7.8448515,110.2889005,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a564ed69c483d:0xedfdeab803cb8b92!8m2!3d-7.8448515!4d110.3609983!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzpr61t_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -916,25 +900,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>-7.818984</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.818984</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.355937</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.01+Dukuh/@-7.8448515,110.2889005,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57bf982eb4d9:0x872b99e2c03dd1be!8m2!3d-7.8189845!4d110.3559367!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bbx0ry5x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -953,25 +936,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>-7.800586</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.800586</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.345205</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.06+Kadipiro/@-7.8448515,110.2889005,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57f7198aef79:0x4a8b7c6c61e2672a!8m2!3d-7.8005864!4d110.3452046!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pztnm452?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -994,25 +976,24 @@
           <t>(0274) 6460056</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>-7.929605</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.929605</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.348176</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.09+Patalan/@-7.9296049,110.2760779,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a5571f31b1d71:0xe7e6add1747ebba6!8m2!3d-7.9296049!4d110.3481757!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b6wjmh28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.09+Patalan/@-7.9296049,110.2760779,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a5571f31b1d71:0xe7e6add1747ebba6!8m2!3d-7.9296049!4d110.3481757!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b6wjmh28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1035,25 +1016,24 @@
           <t>(0274) 6460919</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>-7.915028</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.915028</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.381934</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.05+Imogiri/@-7.9296049,110.2760779,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a5454f5862271:0x183e009ddd47814a!8m2!3d-7.9150278!4d110.381934!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzs424__?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.05+Imogiri/@-7.9296049,110.2760779,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a5454f5862271:0x183e009ddd47814a!8m2!3d-7.9150278!4d110.381934!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzs424__?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1076,25 +1056,24 @@
           <t>(0274) 452029</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.3</v>
+        <v>-7.837627</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.837627</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.399211</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.12+Singosaren/@-7.8376271,110.327113,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56e1b2674217:0x293a3d11b1973040!8m2!3d-7.8376271!4d110.3992108!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzyl1ky7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.12+Singosaren/@-7.8376271,110.327113,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56e1b2674217:0x293a3d11b1973040!8m2!3d-7.8376271!4d110.3992108!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzyl1ky7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1117,25 +1096,24 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F18" t="n">
-        <v>3.8</v>
+        <v>-7.901995</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.901995</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.345543</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Mangkuluhur/@-7.901995,110.2734453,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a55f865e2c0d7:0x6aa020a778c761ab!8m2!3d-7.901995!4d110.3455431!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11jyyhy0bz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1154,25 +1132,24 @@
           <t>0852-9245-3627</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.4</v>
+        <v>-7.864934</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.864934</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.389592</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Imogiri+Timur+44.557.01/@-7.8649339,110.317494,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a568fcf458529:0xc843440b9796e66e!8m2!3d-7.8649339!4d110.3895918!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzr3_hd9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1195,25 +1172,24 @@
           <t>(0274) 4342265</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F20" t="n">
-        <v>3.9</v>
+        <v>-7.818917</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.818917</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.324458</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.14+Tamantirto/@-7.8189172,110.2523601,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af873734ceb1d:0x41bf531c420b8349!8m2!3d-7.8189172!4d110.3244579!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzqczckx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.14+Tamantirto/@-7.8189172,110.2523601,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af873734ceb1d:0x41bf531c420b8349!8m2!3d-7.8189172!4d110.3244579!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzqczckx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>17 jam lalu</t>
         </is>
@@ -1232,25 +1208,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.2</v>
+        <v>-7.829236</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.829236</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.31915</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Bibis+Raya/@-7.8189172,110.2523601,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af9dbdd0db8c1:0x57680fb209331d5d!8m2!3d-7.8292364!4d110.3191495!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11kbx3sb_m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1273,25 +1248,24 @@
           <t>0896-6325-4991</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>-7.83761</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.83761</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.399217</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/BARKAS+JOGJA+DUA/@-7.8376105,110.327119,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56e1ac3f387f:0xf3de41b894efd974!8m2!3d-7.8376105!4d110.3992168!15sCgtTUEJVIEJhbnR1bJIBDXN1cnBsdXNfc3RvcmXgAQA!16s%2Fg%2F11b6hk31x1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1306,25 +1280,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.5</v>
+        <v>-7.817234</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.817234</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.248104</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.14+UAD/@-7.8172337,110.1760063,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af9ee089d9be7:0x4ac352dcf92f0a7b!8m2!3d-7.8172337!4d110.2481041!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c0t9syxv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.14+UAD/@-7.8172337,110.1760063,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af9ee089d9be7:0x4ac352dcf92f0a7b!8m2!3d-7.8172337!4d110.2481041!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c0t9syxv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1347,25 +1320,24 @@
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.3</v>
+        <v>-7.992224</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.992224</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.315543</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.13+Kretek/@-7.9922237,110.2434455,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7b006efbb257ed:0xd6678a673e55556c!8m2!3d-7.9922237!4d110.3155433!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bzrjg_4s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.13+Kretek/@-7.9922237,110.2434455,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7b006efbb257ed:0xd6678a673e55556c!8m2!3d-7.9922237!4d110.3155433!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bzrjg_4s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1392,25 +1364,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.3</v>
+        <v>-7.812302</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.812302</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.351409</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+Bugisan+44.551.04/@-7.8123021,110.2793108,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57eb811e3525:0xee055c86d4e4b4d6!8m2!3d-7.8123021!4d110.3514086!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bbymtw67?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+Bugisan+44.551.04/@-7.8123021,110.2793108,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57eb811e3525:0xee055c86d4e4b4d6!8m2!3d-7.8123021!4d110.3514086!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bbymtw67?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -1429,25 +1400,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.4</v>
+        <v>-7.843768</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.843768</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.410764</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Jambidan/@-7.8437681,110.3386664,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56c4ce0dd8dd:0x72d93cc02f63c5ad!8m2!3d-7.8437681!4d110.4107642!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzr961kb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1462,25 +1432,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.3</v>
+        <v>-7.82593</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.82593</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.345063</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertashop+by+Pertamina/@-7.8259304,110.2729647,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a572bc6d2e799:0x74fffa5f4b9d0410!8m2!3d-7.8259304!4d110.3450625!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11pqttw4kh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1503,25 +1472,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.1</v>
+        <v>-7.820712</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.820712</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.42155</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.10+Mantup/@-7.8207124,110.3494525,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a5733c636ab4d:0x51b990fe909ffaef!8m2!3d-7.8207124!4d110.4215503!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzvzb386?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1544,25 +1512,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.2</v>
+        <v>-7.820607</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.820607</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.480779</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina/@-7.8206074,110.4086813,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a505a10699c59:0xd03653b1cd25434c!8m2!3d-7.8206074!4d110.4807791!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzrb707v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina/@-7.8206074,110.4086813,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a505a10699c59:0xd03653b1cd25434c!8m2!3d-7.8206074!4d110.4807791!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzrb707v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1585,25 +1552,24 @@
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.2</v>
+        <v>-7.810999</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.810999</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.404631</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.02+Ketandan/@-7.810999,110.3325327,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57479d2cbe35:0x7debc49faa6cac12!8m2!3d-7.810999!4d110.4046305!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pztzydpb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1626,25 +1592,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.5</v>
+        <v>-7.812904</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.812904</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.266961</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.10+Candimas/@-7.8129039,110.1948636,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af9c4eea0d6c5:0xe41454d225bf9aff!8m2!3d-7.8129039!4d110.2669614!15sCgtTUEJVIEJhbnR1bFoNIgtzcGJ1IGJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzwfckgm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.10+Candimas/@-7.8129039,110.1948636,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af9c4eea0d6c5:0xe41454d225bf9aff!8m2!3d-7.8129039!4d110.2669614!15sCgtTUEJVIEJhbnR1bFoNIgtzcGJ1IGJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzwfckgm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1663,25 +1628,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F32" t="n">
-        <v>3.7</v>
+        <v>-7.911707</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.911707</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.363138</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Bakulan/@-7.9117066,110.2910406,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a55d50ad50f57:0x18adb16e23f8ae81!8m2!3d-7.9117066!4d110.3631384!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11kj8wbclq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1700,25 +1664,24 @@
           <t>(0274) 380114</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.6</v>
+        <v>-7.819075</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.819075</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.356049</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44-55101/@-7.8190748,110.2839508,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57bfee8f6fc3:0x88bb67bd92079823!8m2!3d-7.8190748!4d110.3560486!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzrh8pc6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1733,25 +1696,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.7</v>
+        <v>-7.883022</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.883022</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.305949</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+Guwosari+Bantul/@-7.8830224,110.2338512,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7aff9d7be13cd5:0x345487b1af469ead!8m2!3d-7.8830224!4d110.305949!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11pbdwwkkg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1770,25 +1732,24 @@
           <t>0812-5901-6998</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.7</v>
+        <v>-7.887632</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.887632</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.324802</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bensin+Bu+Salitri/@-7.8830224,110.2338512,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7affedfe3d35df:0x4b39feff706b03fd!8m2!3d-7.8876322!4d110.3248021!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11hzzfxxgk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bensin+Bu+Salitri/@-7.8830224,110.2338512,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7affedfe3d35df:0x4b39feff706b03fd!8m2!3d-7.8876322!4d110.3248021!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11hzzfxxgk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1815,25 +1776,24 @@
           <t>(0274) 4353260</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.3</v>
+        <v>-7.828123</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.828123</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.447537</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+44.557.04/@-7.8281231,110.3754389,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a50de78df6139:0xda5dc6eebf57936a!8m2!3d-7.8281231!4d110.4475367!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pztqj6zh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+44.557.04/@-7.8281231,110.3754389,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a50de78df6139:0xda5dc6eebf57936a!8m2!3d-7.8281231!4d110.4475367!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pztqj6zh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1860,25 +1820,24 @@
           <t>0821-3307-4407</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.3</v>
+        <v>-7.837737</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.837737</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.31199</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+Bangunjiwo+4P.55103/@-7.8377368,110.2398921,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af93085d0b9b5:0x3b4549a551632109!8m2!3d-7.8377368!4d110.3119899!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11rnbw4pks?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1893,25 +1852,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.3</v>
+        <v>-7.82051</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.82051</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.42166</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+barat+jembatan+sekarsuli/@-7.8205097,110.3495617,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57dfb48a1b49:0x59932ee34759a692!8m2!3d-7.8205097!4d110.4216595!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fn62cbgl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+barat+jembatan+sekarsuli/@-7.8205097,110.3495617,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57dfb48a1b49:0x59932ee34759a692!8m2!3d-7.8205097!4d110.4216595!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fn62cbgl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1934,25 +1892,24 @@
           <t>0878-8669-8911</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.4</v>
+        <v>-7.827773</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.827773</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.353287</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+Mini+%26+Kelontong+Barokah+Dongkelan/@-7.827773,110.2811888,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a576937501bbd:0xe99d2e9eb6d495fa!8m2!3d-7.827773!4d110.3532866!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h0gdj941?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1975,25 +1932,24 @@
           <t>(0274) 410175</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.2</v>
+        <v>-7.836149</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.836149</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.393358</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.11+Giwangan/@-7.8361488,110.3212606,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56e286d70123:0x98cb2185e56eb363!8m2!3d-7.8361488!4d110.3933584!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptv_6tq0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.11+Giwangan/@-7.8361488,110.3212606,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56e286d70123:0x98cb2185e56eb363!8m2!3d-7.8361488!4d110.3933584!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptv_6tq0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2012,25 +1968,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F41" t="n">
-        <v>3.8</v>
+        <v>-7.805637</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.805637</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.335009</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+Ngestiharjo+Kasihan/@-7.8056373,110.2629109,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57ebd82e015f:0x3a43120822f57456!8m2!3d-7.8056373!4d110.3350087!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11p5hq2jr0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
